--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Academic/Teaching/GU/24S/24S Theorien/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24theorien/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FD8EA1-FA04-354F-AD55-0680CE2AE18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B461B8D-FE9D-6D47-B4F2-F304422BD0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>blank</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>long-topic</t>
+  </si>
+  <si>
+    <t>[tylorPrimitiveCulture2018, kippenbergGegenwartUrspruenglichenReligion1997]</t>
+  </si>
+  <si>
+    <t>cover.jpg</t>
   </si>
 </sst>
 </file>
@@ -247,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -274,9 +280,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,7 +610,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P14"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -708,7 +711,9 @@
         <f t="shared" ref="J2" si="1">B2</f>
         <v>1</v>
       </c>
-      <c r="K2" s="11"/>
+      <c r="K2" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="L2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2 &amp; ". " &amp; G2,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>1-Einführung</v>
@@ -760,14 +765,19 @@
         <v>2. Ursprünge: Edward Tylor</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J2:J14" si="4">B3</f>
+        <f t="shared" ref="J3:J14" si="4">B3</f>
         <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L14" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3 &amp; ". " &amp; G3,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>2-Edward-Tylor</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
       <c r="O3" t="str">
         <f t="shared" si="2"/>
         <v>[2]</v>
@@ -818,6 +828,9 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
       <c r="L4" t="str">
         <f t="shared" si="5"/>
         <v>3-James-Frazer</v>
@@ -868,6 +881,9 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
       <c r="L5" t="str">
         <f t="shared" si="5"/>
         <v>4-Aby-Warburg</v>
@@ -918,6 +934,9 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
       <c r="L6" t="str">
         <f t="shared" si="5"/>
         <v>5-Weltreligionen</v>
@@ -968,6 +987,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
+      <c r="K7" t="s">
+        <v>48</v>
+      </c>
       <c r="L7" t="str">
         <f t="shared" si="5"/>
         <v>6-Rudolf-Otto</v>
@@ -1018,6 +1040,9 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
       <c r="L8" t="str">
         <f t="shared" si="5"/>
         <v>7-Mircea-Eliade</v>
@@ -1068,6 +1093,9 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
       <c r="L9" t="str">
         <f t="shared" si="5"/>
         <v>8-Mary-Douglas</v>
@@ -1118,6 +1146,9 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
       <c r="L10" t="str">
         <f t="shared" si="5"/>
         <v>9-Victor-und-Edith-Turner</v>
@@ -1168,6 +1199,9 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
       <c r="L11" t="str">
         <f t="shared" si="5"/>
         <v>10-Clifford-Geertz</v>
@@ -1218,6 +1252,9 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
       <c r="L12" t="str">
         <f t="shared" si="5"/>
         <v>11-Max-Weber</v>
@@ -1268,6 +1305,9 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
       <c r="L13" t="str">
         <f t="shared" si="5"/>
         <v>12-Fundamentalismus</v>
@@ -1318,6 +1358,9 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
       <c r="L14" t="str">
         <f t="shared" si="5"/>
         <v>13-Pierre-Bourdieu</v>
@@ -1338,7 +1381,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:H14 K2">
+  <conditionalFormatting sqref="K2 F2:H14">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>EXACT($F2,"NG")</formula>
     </cfRule>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24theorien/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B461B8D-FE9D-6D47-B4F2-F304422BD0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A79F25-A41D-1746-B1D4-E19EA42AA835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>blank</t>
   </si>
@@ -180,6 +180,24 @@
   </si>
   <si>
     <t>cover.jpg</t>
+  </si>
+  <si>
+    <t>boudha-stupa-kathmandu.jpg</t>
+  </si>
+  <si>
+    <t>golden-bough.jpg</t>
+  </si>
+  <si>
+    <t>mandala.jpg</t>
+  </si>
+  <si>
+    <t>stained-glass-spiral.jpg</t>
+  </si>
+  <si>
+    <t>temple-valadier.jpg</t>
+  </si>
+  <si>
+    <t>frazerIVZaubereiUnd1977</t>
   </si>
 </sst>
 </file>
@@ -190,9 +208,16 @@
     <numFmt numFmtId="164" formatCode="dd\.mm"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -253,21 +278,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -276,11 +301,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,7 +636,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -769,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L14" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3 &amp; ". " &amp; G3,".",""),"&amp;","")," ","-"),"--","-")</f>
@@ -829,13 +855,15 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="5"/>
         <v>3-James-Frazer</v>
       </c>
-      <c r="M4" s="8"/>
+      <c r="M4" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="O4" t="str">
         <f t="shared" si="2"/>
         <v>[3]</v>
@@ -882,7 +910,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="5"/>
@@ -935,7 +963,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="5"/>
@@ -988,7 +1016,7 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="5"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24theorien/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A79F25-A41D-1746-B1D4-E19EA42AA835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DED4B7D-AA2F-BF48-9885-D961300B5302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>blank</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>frazerIVZaubereiUnd1977</t>
+  </si>
+  <si>
+    <t>kokopelli.jpg</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -910,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="5"/>
@@ -1069,7 +1072,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="5"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24theorien/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DED4B7D-AA2F-BF48-9885-D961300B5302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D96643-5809-344E-B375-F5D2253BA27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>blank</t>
   </si>
@@ -201,6 +201,21 @@
   </si>
   <si>
     <t>kokopelli.jpg</t>
+  </si>
+  <si>
+    <t>leaf-dirt.jpg</t>
+  </si>
+  <si>
+    <t>zambia-sunset.jpg</t>
+  </si>
+  <si>
+    <t>rooster.jpg</t>
+  </si>
+  <si>
+    <t>ny-stock-exchange.jpg</t>
+  </si>
+  <si>
+    <t>open-book.jpg</t>
   </si>
 </sst>
 </file>
@@ -639,7 +654,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -919,7 +934,6 @@
         <f t="shared" si="5"/>
         <v>4-Aby-Warburg</v>
       </c>
-      <c r="M5" s="8"/>
       <c r="O5" t="str">
         <f t="shared" si="2"/>
         <v>[4]</v>
@@ -1125,7 +1139,7 @@
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="5"/>
@@ -1178,7 +1192,7 @@
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="5"/>
@@ -1231,7 +1245,7 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="5"/>
@@ -1284,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="5"/>
@@ -1337,7 +1351,7 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="5"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24theorien/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D96643-5809-344E-B375-F5D2253BA27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B995B55C-C510-2144-9F03-EAA2399837A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>blank</t>
   </si>
@@ -179,43 +179,46 @@
     <t>[tylorPrimitiveCulture2018, kippenbergGegenwartUrspruenglichenReligion1997]</t>
   </si>
   <si>
-    <t>cover.jpg</t>
-  </si>
-  <si>
-    <t>boudha-stupa-kathmandu.jpg</t>
-  </si>
-  <si>
-    <t>golden-bough.jpg</t>
-  </si>
-  <si>
-    <t>mandala.jpg</t>
-  </si>
-  <si>
-    <t>stained-glass-spiral.jpg</t>
-  </si>
-  <si>
-    <t>temple-valadier.jpg</t>
-  </si>
-  <si>
     <t>frazerIVZaubereiUnd1977</t>
   </si>
   <si>
-    <t>kokopelli.jpg</t>
-  </si>
-  <si>
-    <t>leaf-dirt.jpg</t>
-  </si>
-  <si>
-    <t>zambia-sunset.jpg</t>
-  </si>
-  <si>
-    <t>rooster.jpg</t>
-  </si>
-  <si>
-    <t>ny-stock-exchange.jpg</t>
-  </si>
-  <si>
-    <t>open-book.jpg</t>
+    <t>cover-2050.jpg</t>
+  </si>
+  <si>
+    <t>boudha-stupa-kathmandu-2050.jpg</t>
+  </si>
+  <si>
+    <t>golden-bough-2050.jpg</t>
+  </si>
+  <si>
+    <t>kokopelli-2050.jpg</t>
+  </si>
+  <si>
+    <t>stained-glass-spiral-2050.jpg</t>
+  </si>
+  <si>
+    <t>temple-valadier-2050.jpg</t>
+  </si>
+  <si>
+    <t>mandala-2050.jpg</t>
+  </si>
+  <si>
+    <t>leaf-dirt-2050.jpg</t>
+  </si>
+  <si>
+    <t>zambia-sunset-2050.jpg</t>
+  </si>
+  <si>
+    <t>rooster-2050.jpg</t>
+  </si>
+  <si>
+    <t>ny-stock-exchange-2050.jpg</t>
+  </si>
+  <si>
+    <t>open-book-2050.jpg</t>
+  </si>
+  <si>
+    <t>praying-hands-2050.jpg</t>
   </si>
 </sst>
 </file>
@@ -654,7 +657,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -756,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2 &amp; ". " &amp; G2,".",""),"&amp;","")," ","-"),"--","-")</f>
@@ -813,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L14" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3 &amp; ". " &amp; G3,".",""),"&amp;","")," ","-"),"--","-")</f>
@@ -873,14 +876,14 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="5"/>
         <v>3-James-Frazer</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="2"/>
@@ -928,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="5"/>
@@ -980,7 +983,7 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="5"/>
@@ -1033,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="5"/>
@@ -1086,7 +1089,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="5"/>
@@ -1404,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="5"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24theorien/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B995B55C-C510-2144-9F03-EAA2399837A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AC3500-87BF-AF45-A7F1-55D52791FDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>blank</t>
   </si>
@@ -176,9 +176,6 @@
     <t>long-topic</t>
   </si>
   <si>
-    <t>[tylorPrimitiveCulture2018, kippenbergGegenwartUrspruenglichenReligion1997]</t>
-  </si>
-  <si>
     <t>frazerIVZaubereiUnd1977</t>
   </si>
   <si>
@@ -219,6 +216,24 @@
   </si>
   <si>
     <t>praying-hands-2050.jpg</t>
+  </si>
+  <si>
+    <t>masuzawaPrefaceIntroduction2005</t>
+  </si>
+  <si>
+    <t>eliadeEinleitung2016</t>
+  </si>
+  <si>
+    <t>tylor11Animismus1873</t>
+  </si>
+  <si>
+    <t>warburgSchlangenritualReisebericht</t>
+  </si>
+  <si>
+    <t>ottoHeiligeUeberIrrationale1926</t>
+  </si>
+  <si>
+    <t>[douglasAbominationsLeviticus2002, douglasGreuelDrittenBuchs1985]</t>
   </si>
 </sst>
 </file>
@@ -229,9 +244,16 @@
     <numFmt numFmtId="164" formatCode="dd\.mm"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -271,6 +293,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -299,21 +327,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -322,12 +350,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +687,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -759,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2 &amp; ". " &amp; G2,".",""),"&amp;","")," ","-"),"--","-")</f>
@@ -816,14 +846,14 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" t="str">
         <f t="shared" ref="L3:L14" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3 &amp; ". " &amp; G3,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>2-Edward-Tylor</v>
       </c>
-      <c r="M3" t="s">
-        <v>47</v>
+      <c r="M3" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" si="2"/>
@@ -876,14 +906,14 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="5"/>
         <v>3-James-Frazer</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="2"/>
@@ -931,11 +961,14 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="5"/>
         <v>4-Aby-Warburg</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="2"/>
@@ -983,13 +1016,15 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="5"/>
         <v>5-Weltreligionen</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="M6" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="O6" t="str">
         <f t="shared" si="2"/>
         <v>[5]</v>
@@ -1036,13 +1071,15 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="5"/>
         <v>6-Rudolf-Otto</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="O7" t="str">
         <f t="shared" si="2"/>
         <v>[6]</v>
@@ -1089,13 +1126,15 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="5"/>
         <v>7-Mircea-Eliade</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="M8" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="O8" t="str">
         <f t="shared" si="2"/>
         <v>[7]</v>
@@ -1142,13 +1181,15 @@
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="5"/>
         <v>8-Mary-Douglas</v>
       </c>
-      <c r="M9" s="8"/>
+      <c r="M9" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="O9" t="str">
         <f t="shared" si="2"/>
         <v>[8]</v>
@@ -1195,7 +1236,7 @@
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="5"/>
@@ -1248,7 +1289,7 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="5"/>
@@ -1301,7 +1342,7 @@
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="5"/>
@@ -1354,7 +1395,7 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="5"/>
@@ -1407,7 +1448,7 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="5"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24theorien/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AC3500-87BF-AF45-A7F1-55D52791FDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FD5879-787B-B54D-B777-BE55DD11055F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30240" yWindow="2720" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>blank</t>
   </si>
@@ -188,15 +188,9 @@
     <t>golden-bough-2050.jpg</t>
   </si>
   <si>
-    <t>kokopelli-2050.jpg</t>
-  </si>
-  <si>
     <t>stained-glass-spiral-2050.jpg</t>
   </si>
   <si>
-    <t>temple-valadier-2050.jpg</t>
-  </si>
-  <si>
     <t>mandala-2050.jpg</t>
   </si>
   <si>
@@ -234,6 +228,18 @@
   </si>
   <si>
     <t>[douglasAbominationsLeviticus2002, douglasGreuelDrittenBuchs1985]</t>
+  </si>
+  <si>
+    <t>warbug-avec-masque-katchina1.jpg</t>
+  </si>
+  <si>
+    <t>bourdieuFunktionsweiseReligioesenFeldes2000</t>
+  </si>
+  <si>
+    <t>[geertzThickDescriptionInterpretive1973, geertzDichteBeschreibungBemerkungen2003]</t>
+  </si>
+  <si>
+    <t>06_Vishnu_BhagavadGita-upscaled.jpg</t>
   </si>
 </sst>
 </file>
@@ -244,9 +250,16 @@
     <numFmt numFmtId="164" formatCode="dd\.mm"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -327,21 +340,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -350,14 +363,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,8 +700,8 @@
   </sheetPr>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -853,7 +867,7 @@
         <v>2-Edward-Tylor</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" si="2"/>
@@ -961,14 +975,14 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="5"/>
         <v>4-Aby-Warburg</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="2"/>
@@ -1016,14 +1030,14 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="5"/>
         <v>5-Weltreligionen</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="2"/>
@@ -1071,14 +1085,14 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="5"/>
         <v>6-Rudolf-Otto</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="2"/>
@@ -1126,14 +1140,14 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="5"/>
         <v>7-Mircea-Eliade</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="2"/>
@@ -1181,14 +1195,14 @@
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="5"/>
         <v>8-Mary-Douglas</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="2"/>
@@ -1236,7 +1250,7 @@
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="5"/>
@@ -1289,13 +1303,15 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="5"/>
         <v>10-Clifford-Geertz</v>
       </c>
-      <c r="M11" s="8"/>
+      <c r="M11" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="O11" t="str">
         <f t="shared" si="2"/>
         <v>[10]</v>
@@ -1342,7 +1358,7 @@
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="5"/>
@@ -1395,7 +1411,7 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="5"/>
@@ -1448,13 +1464,15 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="5"/>
         <v>13-Pierre-Bourdieu</v>
       </c>
-      <c r="M14" s="8"/>
+      <c r="M14" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="O14" t="str">
         <f t="shared" si="2"/>
         <v>[13]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24theorien/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FD5879-787B-B54D-B777-BE55DD11055F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17553FB8-EB6E-E441-8291-1DEE7A2BDF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30240" yWindow="2720" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>blank</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>06_Vishnu_BhagavadGita-upscaled.jpg</t>
+  </si>
+  <si>
+    <t>Frazers Versuch, alle Religionen auf eine gemeinsame Wurzel zurückzuführen, als andauernd prägend wahrzunehmen.</t>
+  </si>
+  <si>
+    <t>Der Begriff "Weltreligionen" im europäischen Diskurs des 19. und 20. Jahrhunderts verorten.</t>
   </si>
 </sst>
 </file>
@@ -700,8 +706,8 @@
   </sheetPr>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -929,6 +935,9 @@
       <c r="M4" s="11" t="s">
         <v>47</v>
       </c>
+      <c r="N4" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="O4" t="str">
         <f t="shared" si="2"/>
         <v>[3]</v>
@@ -1038,6 +1047,9 @@
       </c>
       <c r="M6" s="12" t="s">
         <v>59</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="2"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24theorien/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17553FB8-EB6E-E441-8291-1DEE7A2BDF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCE9CC2-5345-8144-A8E9-3B18966EC5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30240" yWindow="2720" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>blank</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Der Begriff "Weltreligionen" im europäischen Diskurs des 19. und 20. Jahrhunderts verorten.</t>
+  </si>
+  <si>
+    <t>Phänomenologische Ansätze am Beispiel von Eliades Konzeption des „Heiligen und des Profanen“ erkennen und anwenden.</t>
   </si>
 </sst>
 </file>
@@ -1161,6 +1164,9 @@
       <c r="M8" s="12" t="s">
         <v>60</v>
       </c>
+      <c r="N8" t="s">
+        <v>71</v>
+      </c>
       <c r="O8" t="str">
         <f t="shared" si="2"/>
         <v>[7]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24theorien/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCE9CC2-5345-8144-A8E9-3B18966EC5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F23418D-2B96-A448-8EBD-606442DAD5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30240" yWindow="2720" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>blank</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>Phänomenologische Ansätze am Beispiel von Eliades Konzeption des „Heiligen und des Profanen“ erkennen und anwenden.</t>
+  </si>
+  <si>
+    <t>Strukturfunktionalismus am Beispiel von israelitischen Reinheitsgeboten als religionswissenschaftlicher Ansatz anwenden.</t>
   </si>
 </sst>
 </file>
@@ -709,8 +712,8 @@
   </sheetPr>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1222,6 +1225,9 @@
       <c r="M9" s="12" t="s">
         <v>64</v>
       </c>
+      <c r="N9" t="s">
+        <v>72</v>
+      </c>
       <c r="O9" t="str">
         <f t="shared" si="2"/>
         <v>[8]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24theorien/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F23418D-2B96-A448-8EBD-606442DAD5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EDE2FA-A71B-6D41-B335-1EC9161CD65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30240" yWindow="2720" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>blank</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Max Webers ‚Die protestantische Ethik oder der Geist des Kapitalismus'</t>
   </si>
   <si>
-    <t>Fundamentalismus</t>
-  </si>
-  <si>
     <t>Einführung + Die Bedeutung der Evolutionstheorie für die Entstehung der Religionswissenschaft</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>ny-stock-exchange-2050.jpg</t>
   </si>
   <si>
-    <t>open-book-2050.jpg</t>
-  </si>
-  <si>
     <t>praying-hands-2050.jpg</t>
   </si>
   <si>
@@ -252,6 +246,9 @@
   </si>
   <si>
     <t>Strukturfunktionalismus am Beispiel von israelitischen Reinheitsgeboten als religionswissenschaftlicher Ansatz anwenden.</t>
+  </si>
+  <si>
+    <t>wenzelHandoutMaxWeber2024</t>
   </si>
 </sst>
 </file>
@@ -262,9 +259,16 @@
     <numFmt numFmtId="164" formatCode="dd\.mm"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -352,21 +356,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -375,14 +379,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -710,10 +715,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -758,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -793,7 +798,7 @@
         <v>45405</v>
       </c>
       <c r="D2" s="5" t="str">
-        <f t="shared" ref="D2:D14" si="0">IF(LEN(C2),TEXT(C2, "YYYY-MM-DD") &amp; "-" &amp; B2 &amp; ".md",)</f>
+        <f t="shared" ref="D2:D13" si="0">IF(LEN(C2),TEXT(C2, "YYYY-MM-DD") &amp; "-" &amp; B2 &amp; ".md",)</f>
         <v>2024-04-23-1.md</v>
       </c>
       <c r="E2" s="5"/>
@@ -801,10 +806,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" t="str">
         <f>B2 &amp; ". " &amp; IF(ISBLANK(E2),"",E2 &amp; ": ") &amp; G2</f>
@@ -815,14 +820,14 @@
         <v>1</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2 &amp; ". " &amp; G2,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>1-Einführung</v>
       </c>
       <c r="O2" t="str">
-        <f t="shared" ref="O2:O14" si="2">"["&amp;B2&amp;"]"</f>
+        <f t="shared" ref="O2:O13" si="2">"["&amp;B2&amp;"]"</f>
         <v>[1]</v>
       </c>
       <c r="P2" t="str">
@@ -858,35 +863,35 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I14" si="3">B3 &amp; ". " &amp; IF(ISBLANK(E3),"",E3 &amp; ": ") &amp; G3</f>
+        <f t="shared" ref="I3:I13" si="3">B3 &amp; ". " &amp; IF(ISBLANK(E3),"",E3 &amp; ": ") &amp; G3</f>
         <v>2. Ursprünge: Edward Tylor</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J14" si="4">B3</f>
+        <f t="shared" ref="J3:J13" si="4">B3</f>
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L14" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3 &amp; ". " &amp; G3,".",""),"&amp;","")," ","-"),"--","-")</f>
+        <f t="shared" ref="L3:L13" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3 &amp; ". " &amp; G3,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>2-Edward-Tylor</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O3" t="str">
         <f t="shared" si="2"/>
         <v>[2]</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P14" si="6">"---
+        <f t="shared" ref="P3:P13" si="6">"---
 layout: post
 " &amp; B$1 &amp; ": " &amp; B3 &amp; "
 " &amp; O$1 &amp; ": " &amp; O3 &amp; "
@@ -918,10 +923,10 @@
         <v>17</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="3"/>
@@ -932,17 +937,17 @@
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" si="5"/>
         <v>3-James-Frazer</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O4" t="str">
         <f t="shared" si="2"/>
@@ -976,7 +981,7 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -990,14 +995,14 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="5"/>
         <v>4-Aby-Warburg</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O5" t="str">
         <f t="shared" si="2"/>
@@ -1031,10 +1036,10 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="3"/>
@@ -1045,17 +1050,17 @@
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="5"/>
         <v>5-Weltreligionen</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O6" t="str">
         <f t="shared" si="2"/>
@@ -1089,7 +1094,7 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
@@ -1103,14 +1108,14 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="5"/>
         <v>6-Rudolf-Otto</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="2"/>
@@ -1144,10 +1149,10 @@
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="3"/>
@@ -1158,17 +1163,17 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="5"/>
         <v>7-Mircea-Eliade</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="2"/>
@@ -1202,10 +1207,10 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="3"/>
@@ -1216,17 +1221,17 @@
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="5"/>
         <v>8-Mary-Douglas</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="2"/>
@@ -1260,7 +1265,7 @@
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -1274,7 +1279,7 @@
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="5"/>
@@ -1313,10 +1318,10 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="3"/>
@@ -1327,14 +1332,14 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="5"/>
         <v>10-Clifford-Geertz</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="2"/>
@@ -1355,11 +1360,11 @@
         <v>11</v>
       </c>
       <c r="C12" s="4">
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="D12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2024-07-02-11.md</v>
+        <v>2024-07-09-11.md</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -1368,7 +1373,7 @@
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
         <v>25</v>
@@ -1382,13 +1387,15 @@
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="5"/>
         <v>11-Max-Weber</v>
       </c>
-      <c r="M12" s="8"/>
+      <c r="M12" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="O12" t="str">
         <f t="shared" si="2"/>
         <v>[11]</v>
@@ -1408,40 +1415,42 @@
         <v>12</v>
       </c>
       <c r="C13" s="4">
-        <v>45482</v>
+        <v>45489</v>
       </c>
       <c r="D13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>2024-07-09-12.md</v>
+        <v>2024-07-16-12.md</v>
       </c>
       <c r="E13" t="s">
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="3"/>
-        <v>12. Entzauberung: Fundamentalismus</v>
+        <v>12. Entzauberung: Pierre Bourdieu</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="5"/>
-        <v>12-Fundamentalismus</v>
-      </c>
-      <c r="M13" s="8"/>
+        <v>12-Pierre-Bourdieu</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="O13" t="str">
         <f t="shared" si="2"/>
         <v>[12]</v>
@@ -1456,63 +1465,8 @@
 ---</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4">
-        <v>45489</v>
-      </c>
-      <c r="D14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2024-07-16-13.md</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="3"/>
-        <v>13. Entzauberung: Pierre Bourdieu</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="K14" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="5"/>
-        <v>13-Pierre-Bourdieu</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="2"/>
-        <v>[13]</v>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="6"/>
-        <v>---
-layout: post
-session: 13
-tags: [13]
-level: overview
----</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="K2 F2:H14">
+  <conditionalFormatting sqref="K2 F2:H13">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>EXACT($F2,"NG")</formula>
     </cfRule>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/24theorien/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EDE2FA-A71B-6D41-B335-1EC9161CD65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D9AC95-EAC0-F547-87D4-4B0C61CB1FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30240" yWindow="2720" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,8 +717,8 @@
   </sheetPr>
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
